--- a/biology/Médecine/Theodor_Langhans/Theodor_Langhans.xlsx
+++ b/biology/Médecine/Theodor_Langhans/Theodor_Langhans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodor Langhans (28 septembre 1839 - 22 octobre 1915) était un pathologiste allemand natif d'Usingen, en Hesse. Il a étudié la médecine à l'université de Heidelberg et à l'université de Göttingen sous Friedrich Gustav Jakob Henle (1809–1885), à Berlin sous Rudolf Virchow (1821–1902) et à Wurtzbourg, où il est devenu assistant de Friedrich Daniel von Recklinghausen (1833–1910). En 1867, il devint professeur à l'université de Marbourg et en 1872, il est devenu professeur de pathologie à l'université de Giessen, où il a succédé à Ludwig Franz Alexander Winther (de) (1812-1871). 
 De 1872 jusqu'en 1912, Langhans a été professeur de l'anatomie pathologique à l'université de Berne, où l'un de ses assistants a été le chirurgien Fritz de Quervain (1868-1940). 
